--- a/results/lancet2018/global/1.4 drought/drought exposures.xlsx
+++ b/results/lancet2018/global/1.4 drought/drought exposures.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <t>year</t>
   </si>
   <si>
-    <t>drough exposures</t>
+    <t>drought exposures</t>
   </si>
 </sst>
 </file>
